--- a/resources/LangMod/EN/KiriaSources.xlsx
+++ b/resources/LangMod/EN/KiriaSources.xlsx
@@ -1,740 +1,1008 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files (x86)\Steam\steamapps\common\Elin\Package\Mod_ExampleQuest\LangMod\CN\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E823AA-7920-415A-8F63-14F8995FBEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="5205" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Chara" sheetId="1" r:id="rId1"/>
-    <sheet name="CharaText" sheetId="2" r:id="rId2"/>
-    <sheet name="Material" sheetId="7" r:id="rId3"/>
-    <sheet name="Obj" sheetId="3" r:id="rId4"/>
-    <sheet name="Quest" sheetId="4" r:id="rId5"/>
-    <sheet name="Thing" sheetId="5" r:id="rId6"/>
-    <sheet name="Zone" sheetId="6" r:id="rId7"/>
+    <sheet name="Chara" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="CharaText" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Material" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Obj" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Quest" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="Thing" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="Zone" sheetId="7" state="visible" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="225">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>_id</t>
-  </si>
-  <si>
-    <t>name_JP</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>aka_JP</t>
-  </si>
-  <si>
-    <t>aka</t>
-  </si>
-  <si>
-    <t>idActor</t>
-  </si>
-  <si>
-    <t>sort</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>_idRenderData</t>
-  </si>
-  <si>
-    <t>tiles</t>
-  </si>
-  <si>
-    <t>tiles_snow</t>
-  </si>
-  <si>
-    <t>colorMod</t>
-  </si>
-  <si>
-    <t>components</t>
-  </si>
-  <si>
-    <t>defMat</t>
-  </si>
-  <si>
-    <t>LV</t>
-  </si>
-  <si>
-    <t>chance</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>hostility</t>
-  </si>
-  <si>
-    <t>biome</t>
-  </si>
-  <si>
-    <t>tag</t>
-  </si>
-  <si>
-    <t>trait</t>
-  </si>
-  <si>
-    <t>race</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>tactics</t>
-  </si>
-  <si>
-    <t>aiIdle</t>
-  </si>
-  <si>
-    <t>aiParam</t>
-  </si>
-  <si>
-    <t>actCombat</t>
-  </si>
-  <si>
-    <t>mainElement</t>
-  </si>
-  <si>
-    <t>elements</t>
-  </si>
-  <si>
-    <t>equip</t>
-  </si>
-  <si>
-    <t>loot</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>gachaFilter</t>
-  </si>
-  <si>
-    <t>tone</t>
-  </si>
-  <si>
-    <t>actIdle</t>
-  </si>
-  <si>
-    <t>lightData</t>
-  </si>
-  <si>
-    <t>idExtra</t>
-  </si>
-  <si>
-    <t>bio</t>
-  </si>
-  <si>
-    <t>faith</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>hobbies</t>
-  </si>
-  <si>
-    <t>idText</t>
-  </si>
-  <si>
-    <t>moveAnime</t>
-  </si>
-  <si>
-    <t>factory</t>
-  </si>
-  <si>
-    <t>detail_JP</t>
-  </si>
-  <si>
-    <t>detail</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string[]</t>
-  </si>
-  <si>
-    <t>int[]</t>
-  </si>
-  <si>
-    <t>chara</t>
-  </si>
-  <si>
-    <t>log/1</t>
-  </si>
-  <si>
-    <t>!meat</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>norland</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>kiria_putit</t>
-  </si>
-  <si>
-    <t>プティット・キリア</t>
-  </si>
-  <si>
-    <t>Putit Kiria</t>
-  </si>
-  <si>
-    <t>@chara</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>Plain</t>
-  </si>
-  <si>
-    <t>noPortrait</t>
-  </si>
-  <si>
-    <t>UniqueChara</t>
-  </si>
-  <si>
-    <t>machine</t>
-  </si>
-  <si>
-    <t>tourist</t>
-  </si>
-  <si>
-    <t>Wait,hand_Magic/35,ActEscape/10</t>
-  </si>
-  <si>
-    <t>plat/1000,mercury/1000</t>
-  </si>
-  <si>
-    <t>putty</t>
-  </si>
-  <si>
-    <t>hop</t>
-  </si>
-  <si>
-    <t>kiria_headless</t>
-  </si>
-  <si>
-    <t>損傷したキリア</t>
-  </si>
-  <si>
-    <t>Damaged Kiria</t>
-  </si>
-  <si>
-    <t>thief</t>
-  </si>
-  <si>
-    <t>3,50</t>
-  </si>
-  <si>
-    <t>Wait</t>
-  </si>
-  <si>
-    <t>kiria_broken</t>
-  </si>
-  <si>
-    <t>warrior</t>
-  </si>
-  <si>
-    <t>kiria_bunny</t>
-  </si>
-  <si>
-    <t>バニーボムキリア</t>
-  </si>
-  <si>
-    <t>Bunny Bomb Kiria</t>
-  </si>
-  <si>
-    <t>1,80</t>
-  </si>
-  <si>
-    <t>ActSuicide</t>
-  </si>
-  <si>
-    <t>calm_JP</t>
-  </si>
-  <si>
-    <t>fov_JP</t>
-  </si>
-  <si>
-    <t>aggro_JP</t>
-  </si>
-  <si>
-    <t>dead_JP</t>
-  </si>
-  <si>
-    <t>kill_JP</t>
-  </si>
-  <si>
-    <t>calm</t>
-  </si>
-  <si>
-    <t>fov</t>
-  </si>
-  <si>
-    <t>aggro</t>
-  </si>
-  <si>
-    <t>dead</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>adv_kiria2</t>
-  </si>
-  <si>
-    <t>「いつか私の製造者の魂を見つけて、殴ってやるの。」
-「人形愛好者には、まだまだ懲らしめが必要ね…。」
-「結局、私はスクラップじゃなかった。」</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="231">
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name_JP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aka_JP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idActor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_idRenderData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tiles_snow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">colorMod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">defMat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hostility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">race</t>
+  </si>
+  <si>
+    <t xml:space="preserve">job</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tactics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aiIdle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aiParam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actCombat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mainElement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">equip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gachaFilter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actIdle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lightData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idExtra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">works</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hobbies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moveAnime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detail_JP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string[]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int[]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!meat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">norland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiria_putit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">プティット・キリア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Putit Kiria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@chara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noPortrait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniqueChara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">machine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tourist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wait,hand_Magic/35,ActEscape/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plat/1000,mercury/1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">putty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiria_headless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">損傷したキリア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damaged Kiria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thief</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiria_broken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">warrior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiria_bunny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">バニーボムキリア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bunny Bomb Kiria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActSuicide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calm_JP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fov_JP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aggro_JP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dead_JP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kill_JP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aggro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adv_kiria2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">「いつか私の製造者の魂を見つけて、殴ってやるの。」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">「人形愛好者には、まだまだ懲らしめが必要ね…。」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">「結局、私はスクラップじゃなかった。」</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">「私…さびついてしまったようです…」 </t>
   </si>
   <si>
-    <t>"Someday, I will find my creator's spirit, and punch him."
+    <t xml:space="preserve">"Someday, I will find my creator's spirit, and punch him."
 "Doll lovers still need some punishment..."
 "I wasn't scrap afterall."</t>
   </si>
   <si>
-    <t>"I... must have gotten... rusty..."</t>
-  </si>
-  <si>
-    <t>alias</t>
-  </si>
-  <si>
-    <t>_growth</t>
-  </si>
-  <si>
-    <t>costSoil</t>
-  </si>
-  <si>
-    <t>objType</t>
-  </si>
-  <si>
-    <t>vals</t>
-  </si>
-  <si>
-    <t>reqHarvest</t>
-  </si>
-  <si>
-    <t>hp</t>
-  </si>
-  <si>
-    <t>_tileType</t>
-  </si>
-  <si>
-    <t>valType</t>
-  </si>
-  <si>
-    <t>snowTile</t>
-  </si>
-  <si>
-    <t>colorType</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>recipeKey</t>
-  </si>
-  <si>
-    <t>matCategory</t>
-  </si>
-  <si>
-    <t>idRoof</t>
-  </si>
-  <si>
-    <t>ぬる</t>
-  </si>
-  <si>
-    <t>resource</t>
-  </si>
-  <si>
-    <t>gathering,1</t>
-  </si>
-  <si>
-    <t>Obj</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>sand</t>
-  </si>
-  <si>
-    <t>obj</t>
-  </si>
-  <si>
-    <t>奇妙な技師「Ryozu」の遺骸</t>
-  </si>
-  <si>
-    <t>remains of Strange Engineer 「Ryozu」</t>
-  </si>
-  <si>
-    <t>653,652,656,657,658,659</t>
-  </si>
-  <si>
-    <t>gene_kiria</t>
-  </si>
-  <si>
-    <t>bone</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>drama</t>
-  </si>
-  <si>
-    <t>idZone</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>tags</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>minFame</t>
-  </si>
-  <si>
-    <t>talkProgress_JP</t>
-  </si>
-  <si>
-    <t>talkProgress</t>
-  </si>
-  <si>
-    <t>talkComplete_JP</t>
-  </si>
-  <si>
-    <t>talkComplete</t>
-  </si>
-  <si>
-    <t>kiria_map_quest</t>
-  </si>
-  <si>
-    <t>調査依頼</t>
-  </si>
-  <si>
-    <t>Investigation Request</t>
-  </si>
-  <si>
-    <t>Mod_KiriaDLC.QuestKiria</t>
-  </si>
-  <si>
-    <t>kiriaDLC,main</t>
-  </si>
-  <si>
-    <t>#pc、ちょっと調べてほしいことがあるの。|キリアから地図を受け取った。そこに何があるか確かめて。|キリアの軍勢？！自分を守れ...|生き残った…もしかして階段が開くのか？|奇妙な研究所を見つけた。手がかりを探そう。|遺骸がカプセルを握りしめている…中に何か入っているの？</t>
-  </si>
-  <si>
-    <t>#pc, can you look into something for me?|You've recieved a map from Kiria, find out what is there.|An army of Kiria?! Defend yourself... |You've survived, maybe the stairs will unlock?|You've found a strange lab, look for clues. |The remains is clutching a capsule with something in it?</t>
-  </si>
-  <si>
-    <t>unknown_JP</t>
-  </si>
-  <si>
-    <t>unit_JP</t>
-  </si>
-  <si>
-    <t>naming</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>altTiles</t>
-  </si>
-  <si>
-    <t>anime</t>
-  </si>
-  <si>
-    <t>skins</t>
-  </si>
-  <si>
-    <t>disassemble</t>
-  </si>
-  <si>
-    <t>tierGroup</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>electricity</t>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>attackType</t>
-  </si>
-  <si>
-    <t>offense</t>
-  </si>
-  <si>
-    <t>substats</t>
-  </si>
-  <si>
-    <t>defense</t>
-  </si>
-  <si>
-    <t>idToggleExtra</t>
-  </si>
-  <si>
-    <t>idActorEx</t>
-  </si>
-  <si>
-    <t>idSound</t>
-  </si>
-  <si>
-    <t>workTag</t>
-  </si>
-  <si>
-    <t>roomName_JP</t>
-  </si>
-  <si>
-    <t>roomName</t>
-  </si>
-  <si>
-    <t>個</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>oak</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>map_kiria</t>
-  </si>
-  <si>
-    <t>キリアの地図</t>
-  </si>
-  <si>
-    <t>奇妙に描かれた地図</t>
-  </si>
-  <si>
-    <t>枚</t>
-  </si>
-  <si>
-    <t>Kiria's map</t>
-  </si>
-  <si>
-    <t>Oddly drawn map</t>
-  </si>
-  <si>
-    <t>map</t>
-  </si>
-  <si>
-    <t>obj_S flat</t>
-  </si>
-  <si>
-    <t>texture</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>KiriaMap</t>
-  </si>
-  <si>
-    <t>noShop</t>
-  </si>
-  <si>
-    <t>キリア提供の手描き地図</t>
-  </si>
-  <si>
-    <t>A hand drawn map provided by Kiria</t>
-  </si>
-  <si>
-    <t>kiriaTool</t>
-  </si>
-  <si>
-    <t>キリアアイテムツール</t>
-  </si>
-  <si>
-    <t>Kiria Item Tool</t>
-  </si>
-  <si>
-    <t>_tool</t>
-  </si>
-  <si>
-    <t>rock/1</t>
-  </si>
-  <si>
-    <t>granite</t>
-  </si>
-  <si>
-    <t>KiriaItemTool</t>
-  </si>
-  <si>
-    <t>noWish</t>
-  </si>
-  <si>
-    <t>遺伝子</t>
-  </si>
-  <si>
-    <t>Nanomachine Gene</t>
-  </si>
-  <si>
-    <t>dna</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>process</t>
-  </si>
-  <si>
-    <t>KiriaGene</t>
-  </si>
-  <si>
-    <t>gacha</t>
-  </si>
-  <si>
-    <t>生物の遺伝的情報が刻まれている。</t>
-  </si>
-  <si>
-    <t>It bears the genetic traits of the organism.</t>
-  </si>
-  <si>
-    <t>kiria_dungeon</t>
-  </si>
-  <si>
-    <t>ntyris</t>
-  </si>
-  <si>
-    <t>奇妙な工場</t>
-  </si>
-  <si>
-    <t>Strange factory</t>
-  </si>
-  <si>
-    <t>Mod_KiriaDLC.Zone_KiriaDungeon</t>
-  </si>
-  <si>
-    <t>DungeonFactory</t>
-  </si>
-  <si>
-    <t>Dungeon_Factory</t>
-  </si>
-  <si>
-    <t>Cave/cave1</t>
-  </si>
-  <si>
-    <t>Dungeon</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>17,-52,374</t>
-  </si>
-  <si>
-    <t>壊れた機械でいっぱいの奇妙な工場</t>
-  </si>
-  <si>
-    <t>A strange factory full of broken machinery</t>
-  </si>
-  <si>
-    <t>kiria_lab</t>
-  </si>
-  <si>
-    <t>狂信者の実験室</t>
-  </si>
-  <si>
-    <t>Fanatic's Laboratory</t>
-  </si>
-  <si>
-    <t>この地域には不吉な雰囲気が漂っている。</t>
-  </si>
-  <si>
-    <t>This area has a foreboding aura.</t>
-  </si>
-  <si>
-    <t>obj</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <t xml:space="preserve">"I... must have gotten... rusty..."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_growth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">costSoil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">objType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reqHarvest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_tileType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snowTile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">colorType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recipeKey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idRoof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ぬる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gathering,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obj</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">奇妙な技師「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ryozu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">」の遺骸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">remains of Strange Engineer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ryozu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">」</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">653,652,656,657,658,659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gene_kiria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idZone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minFame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talkProgress_JP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talkProgress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talkComplete_JP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talkComplete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiria_map_quest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">調査依頼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigation Request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mod_KiriaDLC.QuestKiria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiriaDLC,main</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">#pc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">、ちょっと調べてほしいことがあるの。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">キリアから地図を受け取った。そこに何があるか確かめて。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">キリアの軍勢？！自分を守れ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">...|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">生き残った…もしかして階段が開くのか？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">奇妙な研究所を見つけた。手がかりを探そう。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">遺骸がカプセルを握りしめている…中に何か入っているの？</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">#pc, can you look into something for me?|You've recieved a map from Kiria, find out what is there.|An army of Kiria?! Defend yourself... |You've survived, maybe the stairs will unlock?|You've found a strange lab, look for clues. |The remains is clutching a capsule with something in it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiria_map_replace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lost map?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mod_KiriaDLC.QuestMapReplace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiriaDLC,mapReplace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地図をなくしちゃったの？新しいのを描きますよ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did you lose the map? I can draw a new one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unknown_JP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit_JP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">naming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">altTiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disassemble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tierGroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electricity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">offense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">defense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idToggleExtra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idActorEx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idSound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">workTag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roomName_JP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roomName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">個</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map_kiria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">キリアの地図</t>
+  </si>
+  <si>
+    <t xml:space="preserve">奇妙に描かれた地図</t>
+  </si>
+  <si>
+    <t xml:space="preserve">枚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiria's map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oddly drawn map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obj_S flat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">texture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KiriaMap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noShop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">キリア提供の手描き地図</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A hand drawn map provided by Kiria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiriaTool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">キリアアイテムツール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiria Item Tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rock/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">granite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KiriaItemTool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noWish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">遺伝子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nanomachine Gene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KiriaGene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gacha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生物の遺伝的情報が刻まれている。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It bears the genetic traits of the organism.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiria_dungeon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ntyris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">奇妙な工場</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strange factory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mod_KiriaDLC.Zone_KiriaDungeon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DungeonFactory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dungeon_Factory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cave/cave1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dungeon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17,-52,374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">壊れた機械でいっぱいの奇妙な工場</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A strange factory full of broken machinery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiria_lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">狂信者の実験室</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanatic's Laboratory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">この地域には不吉な雰囲気が漂っている。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This area has a foreboding aura.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="#,##0"/>
+    <numFmt numFmtId="167" formatCode="General"/>
+  </numFmts>
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -744,7 +1012,7 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
@@ -752,18 +1020,12 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -787,7 +1049,7 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="ヒラギノ角ゴ ProN W3"/>
@@ -795,7 +1057,7 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="MS PGothic"/>
@@ -803,18 +1065,18 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -826,7 +1088,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -834,151 +1096,228 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+  <cellXfs count="23">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4285f4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ea4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="fbbc04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="34a853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="ff6d01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="46bdc6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -986,33 +1325,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -1025,13 +1355,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -1041,15 +1365,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -1057,7 +1379,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -1065,35 +1386,34 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:BQ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:69" ht="15.75" customHeight="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1262,7 +1582,7 @@
       <c r="BP1" s="2"/>
       <c r="BQ1" s="2"/>
     </row>
-    <row r="2" spans="1:69" ht="15.75" customHeight="1">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -1431,10 +1751,10 @@
       <c r="BP2" s="2"/>
       <c r="BQ2" s="2"/>
     </row>
-    <row r="3" spans="1:69" ht="15.75" customHeight="1">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
-      <c r="B3" s="3">
-        <f>MAX(B4:B10323)</f>
+      <c r="B3" s="3" t="n">
+        <f aca="false">MAX(B4:B10323)</f>
         <v>283</v>
       </c>
       <c r="C3" s="2"/>
@@ -1447,11 +1767,11 @@
       <c r="J3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="L3" s="2"/>
-      <c r="M3" s="3">
+      <c r="M3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N3" s="4" t="s">
@@ -1460,7 +1780,7 @@
       <c r="O3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="3" t="n">
         <v>1</v>
       </c>
       <c r="Q3" s="3" t="s">
@@ -1525,14 +1845,14 @@
       <c r="BP3" s="2"/>
       <c r="BQ3" s="2"/>
     </row>
-    <row r="4" spans="1:69" ht="12.75">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="5" t="n">
         <v>283</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>59</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -1540,28 +1860,28 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="H4" s="5">
+      <c r="H4" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="5" t="n">
         <v>2505</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="5" t="n">
         <v>0</v>
       </c>
       <c r="O4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="Q4" s="5">
-        <v>0</v>
-      </c>
-      <c r="R4" s="5">
+      <c r="Q4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5" t="n">
         <v>0</v>
       </c>
       <c r="T4" s="5" t="s">
@@ -1579,7 +1899,7 @@
       <c r="X4" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="AA4" s="6">
+      <c r="AA4" s="7" t="n">
         <v>1100</v>
       </c>
       <c r="AB4" s="5" t="s">
@@ -1598,41 +1918,41 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:69" ht="12.75">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="5" t="n">
         <v>164</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>73</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="5" t="n">
         <v>1014</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="O5" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="Q5" s="5">
-        <v>0</v>
-      </c>
-      <c r="R5" s="5">
+      <c r="Q5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="U5" s="5" t="s">
@@ -1657,41 +1977,41 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:69" ht="12.75">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="5" t="n">
         <v>123</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>73</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="5" t="n">
         <v>1507</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="O6" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="Q6" s="5">
-        <v>0</v>
-      </c>
-      <c r="R6" s="5">
+      <c r="Q6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="T6" s="5" t="s">
@@ -1713,41 +2033,41 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:69" ht="12.75">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="5" t="n">
         <v>86</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>81</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="5" t="n">
         <v>1427</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="5" t="n">
         <v>0</v>
       </c>
       <c r="O7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="Q7" s="5">
-        <v>0</v>
-      </c>
-      <c r="R7" s="5">
+      <c r="Q7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="5" t="n">
         <v>0</v>
       </c>
       <c r="T7" s="5" t="s">
@@ -1776,26 +2096,32 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1847,7 +2173,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
@@ -1897,7 +2223,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1925,17 +2251,17 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" ht="12.75">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="9" t="s">
         <v>98</v>
       </c>
       <c r="K4" s="5" t="s">
@@ -1943,308 +2269,322 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD18336-1C90-43DB-8648-D8AC1E64D5D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N22" activeCellId="0" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="13.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Y1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="Z1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AA1" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AB1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AC1" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AD1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AE1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
     </row>
-    <row r="2" spans="1:33">
-      <c r="A2" s="11" t="s">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="B2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="11" t="s">
+      <c r="G2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" s="9" t="s">
+      <c r="M2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="S2" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="T2" s="11" t="s">
+      <c r="S2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="W2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="X2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="Y2" s="11" t="s">
+      <c r="Y2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="Z2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC2" s="11" t="s">
+      <c r="Z2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC2" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
+      <c r="AD2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
     </row>
-    <row r="3" spans="1:33">
-      <c r="A3" s="12">
-        <f>MAX(A4:A10058)</f>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="n">
+        <f aca="false">MAX(A4:A10058)</f>
         <v>118</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="12" t="s">
+      <c r="H3" s="10"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="14" t="n">
         <v>100</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="14" t="s">
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="14" t="s">
+      <c r="Q3" s="12"/>
+      <c r="R3" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="S3" s="9"/>
-      <c r="T3" s="15">
+      <c r="S3" s="12"/>
+      <c r="T3" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="U3" s="14" t="s">
+      <c r="U3" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="V3" s="14" t="s">
+      <c r="V3" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="12" t="s">
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="Z3" s="12" t="s">
+      <c r="Z3" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11" t="s">
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
     </row>
-    <row r="4" spans="1:33">
-      <c r="A4" s="5">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="n">
         <v>118</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -2256,19 +2596,19 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
-      <c r="O4" s="19" t="s">
-        <v>224</v>
+      <c r="O4" s="18" t="s">
+        <v>123</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="5" t="n">
         <v>0</v>
       </c>
       <c r="R4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
-      <c r="V4" s="5">
+      <c r="V4" s="5" t="n">
         <v>0</v>
       </c>
       <c r="Y4" s="5" t="s">
@@ -2281,31 +2621,45 @@
       <c r="AC4" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="12" max="12" width="215.42578125" customWidth="1"/>
-    <col min="13" max="13" width="208" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="234.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="208"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="15.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="12.15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2358,11 +2712,11 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>141</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -2374,13 +2728,13 @@
       <c r="E4" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0</v>
-      </c>
-      <c r="K4" s="5">
+      <c r="I4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5" t="n">
         <v>100</v>
       </c>
       <c r="L4" s="5" t="s">
@@ -2389,31 +2743,69 @@
       <c r="M4" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="N4" s="5">
-        <v>0</v>
+      <c r="N4" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:BT6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:72" ht="15.75" customHeight="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2421,22 +2813,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>32</v>
@@ -2457,13 +2849,13 @@
         <v>10</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>8</v>
@@ -2484,15 +2876,15 @@
         <v>13</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA1" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA1" s="20" t="s">
         <v>111</v>
       </c>
       <c r="AB1" s="2" t="s">
@@ -2505,13 +2897,13 @@
         <v>17</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF1" s="16" t="s">
-        <v>158</v>
+        <v>164</v>
+      </c>
+      <c r="AF1" s="20" t="s">
+        <v>165</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="AH1" s="2" t="s">
         <v>21</v>
@@ -2520,19 +2912,19 @@
         <v>29</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="AO1" s="2" t="s">
         <v>37</v>
@@ -2541,28 +2933,28 @@
         <v>38</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="AV1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AW1" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="AX1" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="AY1" s="1" t="s">
         <v>46</v>
@@ -2591,7 +2983,7 @@
       <c r="BS1" s="2"/>
       <c r="BT1" s="2"/>
     </row>
-    <row r="2" spans="1:72" ht="15.75" customHeight="1">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -2668,7 +3060,7 @@
       <c r="Z2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" s="16" t="s">
+      <c r="AA2" s="20" t="s">
         <v>49</v>
       </c>
       <c r="AB2" s="2" t="s">
@@ -2683,7 +3075,7 @@
       <c r="AE2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AF2" s="16" t="s">
+      <c r="AF2" s="20" t="s">
         <v>49</v>
       </c>
       <c r="AG2" s="2" t="s">
@@ -2767,19 +3159,19 @@
       <c r="BS2" s="2"/>
       <c r="BT2" s="2"/>
     </row>
-    <row r="3" spans="1:72" ht="15.75" customHeight="1">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="3" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="3" t="s">
@@ -2787,14 +3179,14 @@
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="3">
+      <c r="N3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
-      <c r="S3" s="3">
+      <c r="S3" s="3" t="n">
         <v>100</v>
       </c>
       <c r="T3" s="2"/>
@@ -2805,23 +3197,23 @@
       </c>
       <c r="X3" s="2"/>
       <c r="Y3" s="3" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="17">
+      <c r="AA3" s="21" t="n">
         <v>100</v>
       </c>
-      <c r="AB3" s="18">
+      <c r="AB3" s="22" t="n">
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AD3" s="2"/>
       <c r="AE3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AF3" s="17">
+      <c r="AF3" s="21" t="n">
         <v>1000</v>
       </c>
       <c r="AG3" s="2"/>
@@ -2867,244 +3259,250 @@
       <c r="BS3" s="2"/>
       <c r="BT3" s="2"/>
     </row>
-    <row r="4" spans="1:72" ht="12.75">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D4" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>1713</v>
+      </c>
+      <c r="S4" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA4" s="5" t="n">
+        <v>3500</v>
+      </c>
+      <c r="AB4" s="5" t="n">
+        <v>36</v>
+      </c>
+      <c r="AC4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE4" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF4" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AJ4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AY4" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AZ4" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="K4" s="5">
-        <v>100</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="N4" s="5">
-        <v>1713</v>
-      </c>
-      <c r="S4" s="5">
-        <v>100</v>
-      </c>
-      <c r="W4" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="AA4" s="5">
-        <v>3500</v>
-      </c>
-      <c r="AB4" s="5">
-        <v>36</v>
-      </c>
-      <c r="AC4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="5">
-        <v>4</v>
-      </c>
-      <c r="AE4" s="5">
-        <v>100</v>
-      </c>
-      <c r="AF4" s="5">
-        <v>100</v>
-      </c>
-      <c r="AG4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="AJ4" s="5">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="AY4" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="AZ4" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:72" ht="12.75">
-      <c r="A5" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>171</v>
-      </c>
       <c r="F5" s="5" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="K5" s="5">
+        <v>199</v>
+      </c>
+      <c r="K5" s="5" t="n">
         <v>100</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="5" t="n">
         <v>1810</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="5" t="n">
         <v>100</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA5" s="5">
+        <v>201</v>
+      </c>
+      <c r="AA5" s="5" t="n">
         <v>1500</v>
       </c>
-      <c r="AB5" s="5">
+      <c r="AB5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AC5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="5">
+      <c r="AC5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="AF5" s="5">
+      <c r="AF5" s="5" t="n">
         <v>1500</v>
       </c>
-      <c r="AG5" s="5">
+      <c r="AG5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="AH5" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="AJ5" s="5">
+        <v>202</v>
+      </c>
+      <c r="AJ5" s="5" t="n">
         <v>1</v>
       </c>
       <c r="AT5" s="5" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:72" ht="12.75">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>171</v>
+      <c r="B6" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="K6" s="5">
+        <v>206</v>
+      </c>
+      <c r="K6" s="5" t="n">
         <v>100</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="N6" s="5">
+        <v>189</v>
+      </c>
+      <c r="N6" s="5" t="n">
         <v>549</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="5" t="n">
         <v>100</v>
       </c>
       <c r="W6" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA6" s="5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="AB6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF6" s="5" t="n">
         <v>200</v>
       </c>
-      <c r="Y6" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="AA6" s="5">
-        <v>1500</v>
-      </c>
-      <c r="AB6" s="5">
+      <c r="AG6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ6" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AC6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="5">
-        <v>100</v>
-      </c>
-      <c r="AF6" s="5">
-        <v>200</v>
-      </c>
-      <c r="AG6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ6" s="5">
-        <v>1</v>
-      </c>
       <c r="AV6" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="AY6" s="5" t="s">
-        <v>204</v>
+        <v>210</v>
+      </c>
+      <c r="AY6" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="AZ6" s="5" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="5" max="5" width="29.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" customHeight="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3167,7 +3565,7 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27" ht="15.75" customHeight="1">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -3230,7 +3628,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" ht="15.75" customHeight="1">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3259,109 +3657,113 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
     </row>
-    <row r="4" spans="1:27" ht="12.75">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>208</v>
+        <v>214</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>215</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="F4" s="5">
+        <v>217</v>
+      </c>
+      <c r="F4" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="P4" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="5">
+        <v>221</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5" t="n">
         <v>0</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="U4" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="V4" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="12.75">
-      <c r="A5" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="F5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="P5" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="5">
+      <c r="P5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="U5" s="5" t="s">
         <v>222</v>
       </c>
+      <c r="U5" s="6" t="s">
+        <v>229</v>
+      </c>
       <c r="V5" s="5" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/resources/LangMod/EN/KiriaSources.xlsx
+++ b/resources/LangMod/EN/KiriaSources.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Chara" sheetId="1" state="visible" r:id="rId3"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="246">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -316,58 +316,9 @@
     <t xml:space="preserve">adv_kiria2</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">「いつか私の製造者の魂を見つけて、殴ってやるの。」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">「人形愛好者には、まだまだ懲らしめが必要ね…。」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">「結局、私はスクラップじゃなかった。」</t>
-    </r>
+    <t xml:space="preserve">「いつか私の製造者の魂を見つけて、殴ってやるの。」
+「人形愛好者には、まだまだ懲らしめが必要ね…。」
+「結局、私はスクラップじゃなかった。」</t>
   </si>
   <si>
     <t xml:space="preserve">「私…さびついてしまったようです…」 </t>
@@ -907,6 +858,54 @@
     <t xml:space="preserve">It bears the genetic traits of the organism.</t>
   </si>
   <si>
+    <t xml:space="preserve">parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idProfile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idFile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idBiome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idGen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idPlaylist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">questTag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">textFlavor_JP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">textFlavor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
+  </si>
+  <si>
     <t xml:space="preserve">kiria_dungeon</t>
   </si>
   <si>
@@ -932,9 +931,6 @@
   </si>
   <si>
     <t xml:space="preserve">Dungeon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default</t>
   </si>
   <si>
     <t xml:space="preserve">17,-52,374</t>
@@ -1121,97 +1117,109 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2251,7 +2259,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>95</v>
       </c>
@@ -2317,268 +2325,268 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="14.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="10" width="13.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Y1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="Z1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AA1" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AB1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AC1" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AD1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AE1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="B2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="10" t="s">
+      <c r="G2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" s="12" t="s">
+      <c r="M2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="S2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="T2" s="10" t="s">
+      <c r="S2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="V2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="W2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="X2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="Y2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="Z2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC2" s="10" t="s">
+      <c r="Z2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
+      <c r="AD2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="n">
+      <c r="A3" s="15" t="n">
         <f aca="false">MAX(A4:A10058)</f>
         <v>118</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="14" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="14" t="s">
+      <c r="H3" s="11"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="14" t="n">
+      <c r="L3" s="15" t="n">
         <v>100</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="16" t="s">
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="16" t="s">
+      <c r="Q3" s="13"/>
+      <c r="R3" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="S3" s="12"/>
-      <c r="T3" s="17" t="n">
+      <c r="S3" s="13"/>
+      <c r="T3" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="U3" s="16" t="s">
+      <c r="U3" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="V3" s="16" t="s">
+      <c r="V3" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="14" t="s">
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="Z3" s="14" t="s">
+      <c r="Z3" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10" t="s">
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
@@ -2596,7 +2604,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
-      <c r="O4" s="18" t="s">
+      <c r="O4" s="19" t="s">
         <v>123</v>
       </c>
       <c r="P4" s="5" t="s">
@@ -2638,7 +2646,7 @@
   </sheetPr>
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
@@ -2646,17 +2654,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="234.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="208"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="15.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="16.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="9.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="19.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="28.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="18.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="10" width="234.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="10" width="208"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="10" width="14.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="10" width="11.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="10" width="15.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="10" width="12.15"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2748,34 +2756,34 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="I5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="19" t="s">
+      <c r="I5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="M5" s="0" t="s">
+      <c r="M5" s="10" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2884,7 +2892,7 @@
       <c r="Z1" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="AA1" s="20" t="s">
+      <c r="AA1" s="21" t="s">
         <v>111</v>
       </c>
       <c r="AB1" s="2" t="s">
@@ -2899,7 +2907,7 @@
       <c r="AE1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="AF1" s="20" t="s">
+      <c r="AF1" s="21" t="s">
         <v>165</v>
       </c>
       <c r="AG1" s="2" t="s">
@@ -3060,7 +3068,7 @@
       <c r="Z2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" s="20" t="s">
+      <c r="AA2" s="21" t="s">
         <v>49</v>
       </c>
       <c r="AB2" s="2" t="s">
@@ -3075,7 +3083,7 @@
       <c r="AE2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AF2" s="20" t="s">
+      <c r="AF2" s="21" t="s">
         <v>49</v>
       </c>
       <c r="AG2" s="2" t="s">
@@ -3200,10 +3208,10 @@
         <v>180</v>
       </c>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="21" t="n">
+      <c r="AA3" s="22" t="n">
         <v>100</v>
       </c>
-      <c r="AB3" s="22" t="n">
+      <c r="AB3" s="23" t="n">
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="s">
@@ -3213,7 +3221,7 @@
       <c r="AE3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AF3" s="21" t="n">
+      <c r="AF3" s="22" t="n">
         <v>1000</v>
       </c>
       <c r="AG3" s="2"/>
@@ -3490,209 +3498,249 @@
   </sheetPr>
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
+      <selection pane="bottomLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="29.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="10" width="12.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="F1" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="H1" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q1" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="R1" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="S1" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="T1" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="U1" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="V1" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="W1" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="X1" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="A2" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="L2" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="P2" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="Q2" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
+      <c r="R2" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="T2" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="U2" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="W2" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="F3" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>27</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="P4" s="5" t="n">
         <v>0</v>
@@ -3701,42 +3749,42 @@
         <v>0</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>63</v>
@@ -3748,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/resources/LangMod/EN/KiriaSources.xlsx
+++ b/resources/LangMod/EN/KiriaSources.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Chara" sheetId="1" state="visible" r:id="rId3"/>
@@ -573,7 +573,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">キリアから地図を受け取った。そこに何があるか確かめて。</t>
+      <t xml:space="preserve">キリアから地図を受け取った。そこに何があるか確かめて。\n(世界地図を掘ってみてください。)</t>
     </r>
     <r>
       <rPr>
@@ -657,7 +657,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">#pc, can you look into something for me?|You've recieved a map from Kiria, find out what is there.|An army of Kiria?! Defend yourself... |You've survived, maybe the stairs will unlock?|You've found a strange lab, look for clues. |The remains is clutching a capsule with something in it?</t>
+    <t xml:space="preserve">#pc, can you look into something for me?|You've received a map from Kiria, find out what is there.\n(Try digging on the world map.)|An army of Kiria?! Defend yourself... |You've survived, maybe the stairs will unlock?|You've found a strange lab, look for clues. |The remains is clutching a capsule with something in it?</t>
   </si>
   <si>
     <t xml:space="preserve">kiria_map_replace</t>
@@ -1117,7 +1117,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1195,6 +1195,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2259,7 +2263,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>95</v>
       </c>
@@ -2646,10 +2650,10 @@
   </sheetPr>
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2660,7 +2664,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="28.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="18.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="10" width="234.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="10" width="208"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="20" width="208"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="10" width="14.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="10" width="11.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="10" width="15.34"/>
@@ -2704,7 +2708,7 @@
       <c r="L1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="9" t="s">
         <v>47</v>
       </c>
       <c r="N1" s="5" t="s">
@@ -2720,7 +2724,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>140</v>
       </c>
@@ -2748,7 +2752,7 @@
       <c r="L4" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="9" t="s">
         <v>146</v>
       </c>
       <c r="N4" s="5" t="n">
@@ -2780,10 +2784,10 @@
       <c r="K5" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="20" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2892,7 +2896,7 @@
       <c r="Z1" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="AA1" s="21" t="s">
+      <c r="AA1" s="22" t="s">
         <v>111</v>
       </c>
       <c r="AB1" s="2" t="s">
@@ -2907,7 +2911,7 @@
       <c r="AE1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="AF1" s="21" t="s">
+      <c r="AF1" s="22" t="s">
         <v>165</v>
       </c>
       <c r="AG1" s="2" t="s">
@@ -3068,7 +3072,7 @@
       <c r="Z2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" s="21" t="s">
+      <c r="AA2" s="22" t="s">
         <v>49</v>
       </c>
       <c r="AB2" s="2" t="s">
@@ -3083,7 +3087,7 @@
       <c r="AE2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AF2" s="21" t="s">
+      <c r="AF2" s="22" t="s">
         <v>49</v>
       </c>
       <c r="AG2" s="2" t="s">
@@ -3208,10 +3212,10 @@
         <v>180</v>
       </c>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="22" t="n">
+      <c r="AA3" s="23" t="n">
         <v>100</v>
       </c>
-      <c r="AB3" s="23" t="n">
+      <c r="AB3" s="24" t="n">
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="s">
@@ -3221,7 +3225,7 @@
       <c r="AE3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AF3" s="22" t="n">
+      <c r="AF3" s="23" t="n">
         <v>1000</v>
       </c>
       <c r="AG3" s="2"/>
@@ -3498,7 +3502,7 @@
   </sheetPr>
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
@@ -3511,199 +3515,199 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="S1" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="T1" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="U1" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="V1" s="24" t="s">
+      <c r="V1" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="W1" s="24" t="s">
+      <c r="W1" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="X1" s="24" t="s">
+      <c r="X1" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="24" t="s">
+      <c r="A2" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="24" t="s">
+      <c r="H2" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="24" t="s">
+      <c r="J2" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" s="24" t="s">
+      <c r="L2" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="Q2" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" s="24" t="s">
+      <c r="R2" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="T2" s="24" t="s">
+      <c r="T2" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="U2" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="V2" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="W2" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="X2" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
+      <c r="U2" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="W2" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="24" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="F3" s="24" t="n">
+      <c r="F3" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="24" t="n">
+      <c r="G3" s="25" t="n">
         <v>100</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="24" t="s">
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="24" t="s">
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="25"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">

--- a/resources/LangMod/EN/KiriaSources.xlsx
+++ b/resources/LangMod/EN/KiriaSources.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Chara" sheetId="1" state="visible" r:id="rId3"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="250">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -573,7 +573,8 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">キリアから地図を受け取った。そこに何があるか確かめて。\n(世界地図を掘ってみてください。)</t>
+      <t xml:space="preserve">キリアから地図を受け取った。そこに何があるか確かめて。
+(世界地図を掘ってみてください。)</t>
     </r>
     <r>
       <rPr>
@@ -657,7 +658,8 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">#pc, can you look into something for me?|You've received a map from Kiria, find out what is there.\n(Try digging on the world map.)|An army of Kiria?! Defend yourself... |You've survived, maybe the stairs will unlock?|You've found a strange lab, look for clues. |The remains is clutching a capsule with something in it?</t>
+    <t xml:space="preserve">#pc, can you look into something for me?|You've received a map from Kiria, find out what is there.
+(Try digging on the world map.)|An army of Kiria?! Defend yourself... |You've survived, maybe the stairs will unlock?|You've found a strange lab, look for clues. |The remains is clutching a capsule with something in it?</t>
   </si>
   <si>
     <t xml:space="preserve">kiria_map_replace</t>
@@ -856,6 +858,18 @@
   </si>
   <si>
     <t xml:space="preserve">It bears the genetic traits of the organism.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corpse_ryozu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">653,652,656,657,658,659,-659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KiriaCorpse</t>
   </si>
   <si>
     <t xml:space="preserve">parent</t>
@@ -2263,7 +2277,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>95</v>
       </c>
@@ -2324,7 +2338,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
+      <selection pane="bottomLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2650,10 +2664,10 @@
   </sheetPr>
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
+      <selection pane="bottomLeft" activeCell="M4" activeCellId="0" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2749,7 +2763,7 @@
       <c r="K4" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="9" t="s">
         <v>145</v>
       </c>
       <c r="M4" s="9" t="s">
@@ -2807,15 +2821,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BT6"/>
+  <dimension ref="A1:BT7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="N8" activeCellId="0" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="25.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="10" width="35.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.14"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3484,6 +3506,71 @@
         <v>212</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="K7" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="S7" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="W7" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y7" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA7" s="10" t="n">
+        <v>2686</v>
+      </c>
+      <c r="AB7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF7" s="10" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AG7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3519,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>2</v>
@@ -3537,49 +3624,49 @@
         <v>16</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I1" s="25" t="s">
         <v>111</v>
       </c>
       <c r="J1" s="25" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L1" s="25" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M1" s="25" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="N1" s="25" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="O1" s="25" t="s">
         <v>20</v>
       </c>
       <c r="P1" s="25" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q1" s="25" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="R1" s="25" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="S1" s="25" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="T1" s="25" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="U1" s="25" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="V1" s="25" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="W1" s="25" t="s">
         <v>46</v>
@@ -3674,7 +3761,7 @@
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
       <c r="E3" s="25" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F3" s="25" t="n">
         <v>1</v>
@@ -3697,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="R3" s="25" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="S3" s="26"/>
       <c r="T3" s="26"/>
@@ -3711,19 +3798,19 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>27</v>
@@ -3735,16 +3822,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="P4" s="5" t="n">
         <v>0</v>
@@ -3753,30 +3840,30 @@
         <v>0</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>1</v>
@@ -3788,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>63</v>
@@ -3800,13 +3887,13 @@
         <v>0</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/resources/LangMod/EN/KiriaSources.xlsx
+++ b/resources/LangMod/EN/KiriaSources.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Chara" sheetId="1" state="visible" r:id="rId3"/>
@@ -975,13 +975,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="#,##0"/>
-    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1076,6 +1075,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1131,7 +1137,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1192,7 +1198,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1209,6 +1215,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1216,7 +1226,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1434,7 +1444,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
+      <selection pane="bottomLeft" activeCell="J6" activeCellId="1" sqref="A4 J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2142,7 +2152,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B5" activeCellId="1" sqref="A4 B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2313,7 +2323,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N22" activeCellId="0" sqref="N22"/>
+      <selection pane="topLeft" activeCell="N22" activeCellId="1" sqref="A4 N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2335,10 +2345,10 @@
   </sheetPr>
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2545,7 +2555,7 @@
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="n">
         <f aca="false">MAX(A4:A10058)</f>
-        <v>118</v>
+        <v>1119</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="16" t="s">
@@ -2607,8 +2617,8 @@
       <c r="AG3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
-        <v>118</v>
+      <c r="A4" s="19" t="n">
+        <v>1119</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>124</v>
@@ -2622,7 +2632,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="20" t="s">
         <v>123</v>
       </c>
       <c r="P4" s="5" t="s">
@@ -2667,7 +2677,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="M4" activeCellId="0" sqref="M4"/>
+      <selection pane="bottomLeft" activeCell="M4" activeCellId="1" sqref="A4 M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2678,7 +2688,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="28.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="18.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="10" width="234.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="20" width="208"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="21" width="208"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="10" width="14.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="10" width="11.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="10" width="15.34"/>
@@ -2798,10 +2808,10 @@
       <c r="K5" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="21" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2823,20 +2833,20 @@
   </sheetPr>
   <dimension ref="A1:BT7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N8" activeCellId="0" sqref="N8"/>
+      <selection pane="bottomRight" activeCell="N8" activeCellId="1" sqref="A4 N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="11.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="25.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="10" width="35.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="10" width="21.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2918,7 +2928,7 @@
       <c r="Z1" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="AA1" s="22" t="s">
+      <c r="AA1" s="23" t="s">
         <v>111</v>
       </c>
       <c r="AB1" s="2" t="s">
@@ -2933,7 +2943,7 @@
       <c r="AE1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="AF1" s="22" t="s">
+      <c r="AF1" s="23" t="s">
         <v>165</v>
       </c>
       <c r="AG1" s="2" t="s">
@@ -3094,7 +3104,7 @@
       <c r="Z2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" s="22" t="s">
+      <c r="AA2" s="23" t="s">
         <v>49</v>
       </c>
       <c r="AB2" s="2" t="s">
@@ -3109,7 +3119,7 @@
       <c r="AE2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AF2" s="22" t="s">
+      <c r="AF2" s="23" t="s">
         <v>49</v>
       </c>
       <c r="AG2" s="2" t="s">
@@ -3234,10 +3244,10 @@
         <v>180</v>
       </c>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="23" t="n">
+      <c r="AA3" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="AB3" s="24" t="n">
+      <c r="AB3" s="25" t="n">
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="s">
@@ -3247,7 +3257,7 @@
       <c r="AE3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AF3" s="23" t="n">
+      <c r="AF3" s="24" t="n">
         <v>1000</v>
       </c>
       <c r="AG3" s="2"/>
@@ -3513,7 +3523,7 @@
       <c r="B7" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="22" t="s">
         <v>178</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -3592,7 +3602,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="I10" activeCellId="1" sqref="A4 I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3602,199 +3612,199 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="P1" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="Q1" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="R1" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="S1" s="25" t="s">
+      <c r="S1" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="T1" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="U1" s="25" t="s">
+      <c r="U1" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="V1" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="W1" s="25" t="s">
+      <c r="W1" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="X1" s="25" t="s">
+      <c r="X1" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="25" t="s">
+      <c r="A2" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="25" t="s">
+      <c r="H2" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="25" t="s">
+      <c r="J2" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" s="25" t="s">
+      <c r="L2" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" s="25" t="s">
+      <c r="R2" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="T2" s="25" t="s">
+      <c r="T2" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="U2" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="V2" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="W2" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="X2" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
+      <c r="U2" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="W2" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="25" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="F3" s="25" t="n">
+      <c r="F3" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="25" t="n">
+      <c r="G3" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="25" t="s">
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="25" t="s">
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">

--- a/resources/LangMod/EN/KiriaSources.xlsx
+++ b/resources/LangMod/EN/KiriaSources.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Chara" sheetId="1" state="visible" r:id="rId3"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="226">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -529,7 +529,7 @@
     <t xml:space="preserve">Investigation Request</t>
   </si>
   <si>
-    <t xml:space="preserve">Mod_KiriaDLC.QuestKiria</t>
+    <t xml:space="preserve">QuestKiria</t>
   </si>
   <si>
     <t xml:space="preserve">kiriaDLC,main</t>
@@ -662,27 +662,6 @@
 (Try digging on the world map.)|An army of Kiria?! Defend yourself... |You've survived, maybe the stairs will unlock?|You've found a strange lab, look for clues. |The remains is clutching a capsule with something in it?</t>
   </si>
   <si>
-    <t xml:space="preserve">kiria_map_replace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lost map?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mod_KiriaDLC.QuestMapReplace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kiriaDLC,mapReplace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">地図をなくしちゃったの？新しいのを描きますよ。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Did you lose the map? I can draw a new one.</t>
-  </si>
-  <si>
     <t xml:space="preserve">unknown_JP</t>
   </si>
   <si>
@@ -809,57 +788,6 @@
     <t xml:space="preserve">A hand drawn map provided by Kiria</t>
   </si>
   <si>
-    <t xml:space="preserve">kiriaTool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">キリアアイテムツール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiria Item Tool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_tool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rock/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">granite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KiriaItemTool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noWish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">遺伝子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nanomachine Gene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KiriaGene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gacha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生物の遺伝的情報が刻まれている。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It bears the genetic traits of the organism.</t>
-  </si>
-  <si>
     <t xml:space="preserve">corpse_ryozu</t>
   </si>
   <si>
@@ -869,7 +797,7 @@
     <t xml:space="preserve">653,652,656,657,658,659,-659</t>
   </si>
   <si>
-    <t xml:space="preserve">KiriaCorpse</t>
+    <t xml:space="preserve">RyozuCorpse</t>
   </si>
   <si>
     <t xml:space="preserve">parent</t>
@@ -932,7 +860,7 @@
     <t xml:space="preserve">Strange factory</t>
   </si>
   <si>
-    <t xml:space="preserve">Mod_KiriaDLC.Zone_KiriaDungeon</t>
+    <t xml:space="preserve">Zone_KiriaDungeon</t>
   </si>
   <si>
     <t xml:space="preserve">DungeonFactory</t>
@@ -1226,10 +1154,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1240,6 +1164,10 @@
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1444,10 +1372,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J6" activeCellId="1" sqref="A4 J6"/>
+      <selection pane="bottomLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2152,10 +2080,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B5" activeCellId="1" sqref="A4 B5"/>
+      <selection pane="bottomLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -2323,10 +2251,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N22" activeCellId="1" sqref="A4 N22"/>
+      <selection pane="topLeft" activeCell="N22" activeCellId="0" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2345,13 +2273,13 @@
   </sheetPr>
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="14.29"/>
@@ -2672,22 +2600,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="M4" activeCellId="1" sqref="A4 M4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="16.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="9.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="19.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="28.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="18.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="10" width="234.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="10" width="136.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="21" width="208"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="10" width="14.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="10" width="11.73"/>
@@ -2748,7 +2676,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>140</v>
       </c>
@@ -2771,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>145</v>
@@ -2783,38 +2711,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="I5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>153</v>
-      </c>
-    </row>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2831,22 +2735,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BT7"/>
+  <dimension ref="A1:BT1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N8" activeCellId="1" sqref="A4 N8"/>
+      <selection pane="bottomRight" activeCell="AH6" activeCellId="0" sqref="AH6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="11.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="25.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="10" width="35.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="10" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="10" width="27.82"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2857,22 +2761,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>32</v>
@@ -2893,13 +2797,13 @@
         <v>10</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>8</v>
@@ -2920,15 +2824,15 @@
         <v>13</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA1" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA1" s="22" t="s">
         <v>111</v>
       </c>
       <c r="AB1" s="2" t="s">
@@ -2941,13 +2845,13 @@
         <v>17</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="AF1" s="23" t="s">
-        <v>165</v>
+        <v>157</v>
+      </c>
+      <c r="AF1" s="22" t="s">
+        <v>158</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="AH1" s="2" t="s">
         <v>21</v>
@@ -2956,19 +2860,19 @@
         <v>29</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="AO1" s="2" t="s">
         <v>37</v>
@@ -2977,28 +2881,28 @@
         <v>38</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="AV1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AW1" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="AX1" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="AY1" s="1" t="s">
         <v>46</v>
@@ -3104,7 +3008,7 @@
       <c r="Z2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" s="23" t="s">
+      <c r="AA2" s="22" t="s">
         <v>49</v>
       </c>
       <c r="AB2" s="2" t="s">
@@ -3119,7 +3023,7 @@
       <c r="AE2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AF2" s="23" t="s">
+      <c r="AF2" s="22" t="s">
         <v>49</v>
       </c>
       <c r="AG2" s="2" t="s">
@@ -3208,14 +3112,14 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="3" t="s">
@@ -3241,23 +3145,23 @@
       </c>
       <c r="X3" s="2"/>
       <c r="Y3" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="24" t="n">
+      <c r="AA3" s="23" t="n">
         <v>100</v>
       </c>
-      <c r="AB3" s="25" t="n">
+      <c r="AB3" s="24" t="n">
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AD3" s="2"/>
       <c r="AE3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AF3" s="24" t="n">
+      <c r="AF3" s="23" t="n">
         <v>1000</v>
       </c>
       <c r="AG3" s="2"/>
@@ -3305,31 +3209,31 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>100</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="N4" s="5" t="n">
         <v>1713</v>
@@ -3338,10 +3242,10 @@
         <v>100</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="AA4" s="5" t="n">
         <v>3500</v>
@@ -3365,222 +3269,88 @@
         <v>0</v>
       </c>
       <c r="AH4" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="AJ4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="AT4" s="5" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="AY4" s="6" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="AZ4" s="5" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>196</v>
+      <c r="A5" s="10" t="s">
+        <v>189</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>178</v>
+        <v>124</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>171</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="K5" s="5" t="n">
+        <v>125</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="K5" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="N5" s="5" t="n">
-        <v>1810</v>
-      </c>
-      <c r="S5" s="5" t="n">
+      <c r="N5" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="S5" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="W5" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="AA5" s="5" t="n">
-        <v>1500</v>
-      </c>
-      <c r="AB5" s="5" t="n">
+      <c r="W5" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y5" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA5" s="10" t="n">
+        <v>2686</v>
+      </c>
+      <c r="AB5" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="AC5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="5" t="n">
+      <c r="AC5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="AF5" s="5" t="n">
-        <v>1500</v>
-      </c>
-      <c r="AG5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ5" s="5" t="n">
+      <c r="AF5" s="10" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AG5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="AJ5" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="AT5" s="5" t="s">
-        <v>203</v>
+      <c r="AT5" s="10" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="N6" s="5" t="n">
-        <v>549</v>
-      </c>
-      <c r="S6" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="W6" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="Y6" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="AA6" s="5" t="n">
-        <v>1500</v>
-      </c>
-      <c r="AB6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF6" s="5" t="n">
-        <v>200</v>
-      </c>
-      <c r="AG6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="AJ6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV6" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="AY6" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="AZ6" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="K7" s="10" t="n">
-        <v>100</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="S7" s="10" t="n">
-        <v>100</v>
-      </c>
-      <c r="W7" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y7" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA7" s="10" t="n">
-        <v>2686</v>
-      </c>
-      <c r="AB7" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="10" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF7" s="10" t="n">
-        <v>4000</v>
-      </c>
-      <c r="AG7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ7" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT7" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3602,13 +3372,15 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I10" activeCellId="1" sqref="A4 I10"/>
+      <selection pane="bottomLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="29.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="10" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="24.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3616,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="C1" s="26" t="s">
         <v>2</v>
@@ -3634,49 +3406,49 @@
         <v>16</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="I1" s="26" t="s">
         <v>111</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="L1" s="26" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="M1" s="26" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="N1" s="26" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="O1" s="26" t="s">
         <v>20</v>
       </c>
       <c r="P1" s="26" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="Q1" s="26" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="R1" s="26" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="S1" s="26" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="T1" s="26" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="U1" s="26" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="V1" s="26" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="W1" s="26" t="s">
         <v>46</v>
@@ -3771,7 +3543,7 @@
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
       <c r="E3" s="26" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="F3" s="26" t="n">
         <v>1</v>
@@ -3794,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="R3" s="26" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="S3" s="27"/>
       <c r="T3" s="27"/>
@@ -3808,22 +3580,22 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0</v>
@@ -3832,16 +3604,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="P4" s="5" t="n">
         <v>0</v>
@@ -3850,30 +3622,30 @@
         <v>0</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>1</v>
@@ -3885,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>63</v>
@@ -3897,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/resources/LangMod/EN/KiriaSources.xlsx
+++ b/resources/LangMod/EN/KiriaSources.xlsx
@@ -5,16 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Chara" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="CharaText" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Material" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Obj" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="Quest" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="Thing" sheetId="6" state="visible" r:id="rId8"/>
-    <sheet name="Zone" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="Quest" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Thing" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Zone" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="222">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -214,16 +212,13 @@
     <t xml:space="preserve">@chara</t>
   </si>
   <si>
-    <t xml:space="preserve">meat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noPortrait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UniqueChara</t>
+    <t xml:space="preserve">copper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniqueMonster</t>
   </si>
   <si>
     <t xml:space="preserve">machine</t>
@@ -332,76 +327,329 @@
     <t xml:space="preserve">"I... must have gotten... rusty..."</t>
   </si>
   <si>
-    <t xml:space="preserve">alias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_growth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">costSoil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">objType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reqHarvest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hp</t>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idZone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minFame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talkProgress_JP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talkProgress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talkComplete_JP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talkComplete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiria_quest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">調査依頼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigation Request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QuestKiria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiria,main</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">#pc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">、ちょっと調べてほしいことがあるの。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">#pc, can you look into something for me?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiria_quest1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">キリアから地図を受け取った。そこに何があるか確かめて。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">世界地図を掘ってみてください。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">You've received a map from Kiria, find out what is there.
+(Try digging on the world map.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiria_quest2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">キリアの軍勢？！自分を守れ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">...</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">An army of Kiria?! Defend yourself... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiria_quest3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生き残った…もしかして階段が開くのか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You've survived, maybe the stairs will unlock?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiria_quest4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">奇妙な研究所を見つけた。手がかりを探そう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You've found a strange lab, look for clues.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiria_quest5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">遺骸がカプセルを握りしめている…中に何か入っているの？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The remains is clutching a capsule with something in it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unknown_JP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit_JP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">naming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unknown</t>
   </si>
   <si>
     <t xml:space="preserve">_tileType</t>
   </si>
   <si>
-    <t xml:space="preserve">valType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snowTile</t>
+    <t xml:space="preserve">altTiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skins</t>
   </si>
   <si>
     <t xml:space="preserve">colorType</t>
   </si>
   <si>
+    <t xml:space="preserve">recipeKey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disassemble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tierGroup</t>
+  </si>
+  <si>
     <t xml:space="preserve">value</t>
   </si>
   <si>
-    <t xml:space="preserve">recipeKey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">matCategory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">idRoof</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ぬる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gathering,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
+    <t xml:space="preserve">HP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electricity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">offense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">defense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idToggleExtra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idActorEx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idSound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">workTag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roomName_JP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roomName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">個</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obj</t>
+    <t xml:space="preserve">map_kiria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">キリアの地図</t>
+  </si>
+  <si>
+    <t xml:space="preserve">奇妙に描かれた地図</t>
+  </si>
+  <si>
+    <t xml:space="preserve">枚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiria's map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oddly drawn map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obj_S flat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">texture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KiriaMap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noShop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">キリア提供の手描き地図</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A hand drawn map provided by Kiria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corpse_ryozu</t>
   </si>
   <si>
     <r>
@@ -478,325 +726,18 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">653,652,656,657,658,659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gene_kiria</t>
+    <t xml:space="preserve">ext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">653,652,656,657,658,659,-659</t>
   </si>
   <si>
     <t xml:space="preserve">bone</t>
   </si>
   <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">idZone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags</t>
-  </si>
-  <si>
-    <t xml:space="preserve">money</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minFame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">talkProgress_JP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">talkProgress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">talkComplete_JP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">talkComplete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kiria_map_quest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">調査依頼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investigation Request</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QuestKiria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kiriaDLC,main</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">#pc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">、ちょっと調べてほしいことがあるの。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">キリアから地図を受け取った。そこに何があるか確かめて。
-(世界地図を掘ってみてください。)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">キリアの軍勢？！自分を守れ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">...|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">生き残った…もしかして階段が開くのか？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">奇妙な研究所を見つけた。手がかりを探そう。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">遺骸がカプセルを握りしめている…中に何か入っているの？</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">#pc, can you look into something for me?|You've received a map from Kiria, find out what is there.
-(Try digging on the world map.)|An army of Kiria?! Defend yourself... |You've survived, maybe the stairs will unlock?|You've found a strange lab, look for clues. |The remains is clutching a capsule with something in it?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unknown_JP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit_JP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">naming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unknown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">altTiles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disassemble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tierGroup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">electricity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">offense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">substats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">defense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">idToggleExtra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">idActorEx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">idSound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">workTag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roomName_JP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roomName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">個</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">map_kiria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">キリアの地図</t>
-  </si>
-  <si>
-    <t xml:space="preserve">奇妙に描かれた地図</t>
-  </si>
-  <si>
-    <t xml:space="preserve">枚</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiria's map</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oddly drawn map</t>
-  </si>
-  <si>
-    <t xml:space="preserve">map</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obj_S flat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">texture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KiriaMap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noShop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">キリア提供の手描き地図</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A hand drawn map provided by Kiria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corpse_ryozu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ext</t>
-  </si>
-  <si>
-    <t xml:space="preserve">653,652,656,657,658,659,-659</t>
-  </si>
-  <si>
     <t xml:space="preserve">RyozuCorpse</t>
   </si>
   <si>
@@ -845,6 +786,9 @@
     <t xml:space="preserve">Zone</t>
   </si>
   <si>
+    <t xml:space="preserve">Plain</t>
+  </si>
+  <si>
     <t xml:space="preserve">default</t>
   </si>
   <si>
@@ -860,7 +804,7 @@
     <t xml:space="preserve">Strange factory</t>
   </si>
   <si>
-    <t xml:space="preserve">Zone_KiriaDungeon</t>
+    <t xml:space="preserve">Zone_DungeonKiria</t>
   </si>
   <si>
     <t xml:space="preserve">DungeonFactory</t>
@@ -908,7 +852,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -966,54 +910,10 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="ヒラギノ角ゴ ProN W3"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans JP"/>
       <family val="2"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="MS PGothic"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="MS PGothic"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="ヒラギノ角ゴ ProN W3"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="MS PGothic"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1065,7 +965,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1110,47 +1010,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1166,7 +1030,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1372,7 +1236,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
+      <selection pane="bottomLeft" activeCell="AF16" activeCellId="0" sqref="AF16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1840,7 +1704,7 @@
         <v>62</v>
       </c>
       <c r="P4" s="5" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>0</v>
@@ -1851,49 +1715,47 @@
       <c r="T4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="U4" s="5"/>
+      <c r="V4" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="W4" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="X4" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="AA4" s="7" t="n">
         <v>1100</v>
       </c>
       <c r="AB4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF4" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="AF4" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="AG4" s="5" t="s">
         <v>52</v>
       </c>
       <c r="AJ4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS4" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="AS4" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="5" t="n">
         <v>164</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="H5" s="5" t="n">
         <v>0</v>
@@ -1911,7 +1773,7 @@
         <v>62</v>
       </c>
       <c r="P5" s="5" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>0</v>
@@ -1919,23 +1781,24 @@
       <c r="R5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="T5" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="U5" s="5"/>
+      <c r="V5" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="W5" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="W5" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="X5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA5" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AA5" s="5" t="s">
+      <c r="AB5" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="AB5" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="AG5" s="5" t="s">
         <v>52</v>
@@ -1943,16 +1806,16 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="5" t="n">
         <v>123</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="H6" s="5" t="n">
         <v>0</v>
@@ -1970,7 +1833,7 @@
         <v>62</v>
       </c>
       <c r="P6" s="5" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>0</v>
@@ -1981,17 +1844,15 @@
       <c r="T6" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="U6" s="5" t="s">
+      <c r="U6" s="5"/>
+      <c r="V6" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="V6" s="5" t="s">
+      <c r="W6" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="W6" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="X6" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG6" s="5" t="s">
         <v>52</v>
@@ -1999,16 +1860,16 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="5" t="n">
         <v>86</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>0</v>
@@ -2026,7 +1887,7 @@
         <v>62</v>
       </c>
       <c r="P7" s="5" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>0</v>
@@ -2037,23 +1898,21 @@
       <c r="T7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="U7" s="5" t="s">
+      <c r="U7" s="5"/>
+      <c r="V7" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="V7" s="5" t="s">
+      <c r="W7" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="W7" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="X7" s="5" t="s">
         <v>57</v>
       </c>
       <c r="AA7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB7" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="AB7" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="AG7" s="5" t="s">
         <v>52</v>
@@ -2093,34 +1952,34 @@
         <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -2217,19 +2076,19 @@
     </row>
     <row r="4" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="F4" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="H4" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="K4" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2248,375 +2107,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N22" activeCellId="0" sqref="N22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AG4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="14.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="10" width="13.71"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="T1" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="X1" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z1" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA1" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB1" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC1" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD1" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE1" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="U2" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="V2" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="W2" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="X2" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y2" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC2" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="n">
-        <f aca="false">MAX(A4:A10058)</f>
-        <v>1119</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="L3" s="15" t="n">
-        <v>100</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="S3" s="13"/>
-      <c r="T3" s="18" t="n">
-        <v>10</v>
-      </c>
-      <c r="U3" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="V3" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z3" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="n">
-        <v>1119</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="O4" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z4" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="16.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="19.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="9.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="19.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="28.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="18.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="10" width="136.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="21" width="208"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="11" width="208"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="10" width="14.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="10" width="11.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="10" width="15.34"/>
@@ -2634,28 +2141,28 @@
         <v>3</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>46</v>
@@ -2664,33 +2171,34 @@
         <v>47</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0</v>
@@ -2701,14 +2209,114 @@
       <c r="K4" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="L4" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>146</v>
+      <c r="L4" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="N4" s="5" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2730,14 +2338,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:BT1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
@@ -2761,22 +2369,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>32</v>
@@ -2788,7 +2396,7 @@
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>9</v>
@@ -2797,13 +2405,13 @@
         <v>10</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>8</v>
@@ -2812,10 +2420,10 @@
         <v>12</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>45</v>
@@ -2824,16 +2432,16 @@
         <v>13</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA1" s="22" t="s">
-        <v>111</v>
+        <v>144</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>15</v>
@@ -2845,13 +2453,13 @@
         <v>17</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF1" s="22" t="s">
-        <v>158</v>
+        <v>146</v>
+      </c>
+      <c r="AF1" s="13" t="s">
+        <v>147</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="AH1" s="2" t="s">
         <v>21</v>
@@ -2860,19 +2468,19 @@
         <v>29</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="AO1" s="2" t="s">
         <v>37</v>
@@ -2881,28 +2489,28 @@
         <v>38</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="AV1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AW1" s="2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="AX1" s="2" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="AY1" s="1" t="s">
         <v>46</v>
@@ -3008,7 +2616,7 @@
       <c r="Z2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" s="22" t="s">
+      <c r="AA2" s="13" t="s">
         <v>49</v>
       </c>
       <c r="AB2" s="2" t="s">
@@ -3023,7 +2631,7 @@
       <c r="AE2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AF2" s="22" t="s">
+      <c r="AF2" s="13" t="s">
         <v>49</v>
       </c>
       <c r="AG2" s="2" t="s">
@@ -3112,14 +2720,14 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="3" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="3" t="s">
@@ -3141,34 +2749,34 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="4" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="X3" s="2"/>
       <c r="Y3" s="3" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="23" t="n">
+      <c r="AA3" s="14" t="n">
         <v>100</v>
       </c>
-      <c r="AB3" s="24" t="n">
+      <c r="AB3" s="15" t="n">
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="AD3" s="2"/>
       <c r="AE3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AF3" s="23" t="n">
+      <c r="AF3" s="14" t="n">
         <v>1000</v>
       </c>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
       <c r="AJ3" s="3" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
@@ -3209,31 +2817,31 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>100</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="N4" s="5" t="n">
         <v>1713</v>
@@ -3242,10 +2850,10 @@
         <v>100</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="AA4" s="5" t="n">
         <v>3500</v>
@@ -3269,54 +2877,54 @@
         <v>0</v>
       </c>
       <c r="AH4" s="5" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AJ4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="AT4" s="5" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="AY4" s="6" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="AZ4" s="5" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>171</v>
+        <v>181</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>160</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="K5" s="10" t="n">
         <v>100</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>123</v>
+        <v>184</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="S5" s="10" t="n">
         <v>100</v>
       </c>
       <c r="W5" s="10" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="Y5" s="10" t="s">
-        <v>128</v>
+        <v>186</v>
       </c>
       <c r="AA5" s="10" t="n">
         <v>2686</v>
@@ -3340,13 +2948,13 @@
         <v>0</v>
       </c>
       <c r="AH5" s="10" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AJ5" s="10" t="n">
         <v>1</v>
       </c>
       <c r="AT5" s="10" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3362,290 +2970,290 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="29.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="10" width="20.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="10" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="24.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="10" width="24.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="26" t="s">
+      <c r="N1" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="I1" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="J1" s="26" t="s">
+      <c r="O1" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="Q1" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="R1" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="S1" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="T1" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="O1" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="26" t="s">
+      <c r="U1" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="V1" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="R1" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="S1" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="T1" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="U1" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="V1" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="W1" s="26" t="s">
+      <c r="W1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="X1" s="26" t="s">
+      <c r="X1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="26" t="s">
+      <c r="A2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="26" t="s">
+      <c r="H2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="26" t="s">
+      <c r="J2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" s="26" t="s">
+      <c r="L2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" s="26" t="s">
+      <c r="R2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="T2" s="26" t="s">
+      <c r="T2" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="U2" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="V2" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="W2" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="X2" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
+      <c r="U2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F3" s="26" t="n">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="F3" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="26" t="n">
+      <c r="G3" s="17" t="n">
         <v>100</v>
       </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="F4" s="5" t="n">
+        <v>48</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="F4" s="5" t="n">
-        <v>48</v>
-      </c>
-      <c r="G4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5" t="s">
+      <c r="P4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="S4" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="U4" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="V4" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="P4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>1</v>
@@ -3657,25 +3265,25 @@
         <v>0</v>
       </c>
       <c r="K5" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="V5" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="P5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="U5" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="V5" s="5" t="s">
-        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/resources/LangMod/EN/KiriaSources.xlsx
+++ b/resources/LangMod/EN/KiriaSources.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Chara" sheetId="1" state="visible" r:id="rId3"/>
@@ -411,8 +411,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">キリアから地図を受け取った。そこに何があるか確かめて。
-</t>
+      <t xml:space="preserve">キリアから地図を受け取った。そこに何があるか確かめて。</t>
     </r>
     <r>
       <rPr>
@@ -446,8 +445,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">You've received a map from Kiria, find out what is there.
-(Try digging on the world map.)</t>
+    <t xml:space="preserve">You've received a map from Kiria, find out what is there. (Try digging on the world map.)</t>
   </si>
   <si>
     <t xml:space="preserve">kiria_quest2</t>
@@ -965,7 +963,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -994,6 +992,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1004,10 +1006,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1036,10 +1034,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1716,7 +1710,7 @@
         <v>63</v>
       </c>
       <c r="U4" s="5"/>
-      <c r="V4" s="0" t="s">
+      <c r="V4" s="7" t="s">
         <v>64</v>
       </c>
       <c r="W4" s="5" t="s">
@@ -1725,7 +1719,7 @@
       <c r="X4" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="AA4" s="7" t="n">
+      <c r="AA4" s="8" t="n">
         <v>1100</v>
       </c>
       <c r="AB4" s="5" t="s">
@@ -1781,11 +1775,11 @@
       <c r="R5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="T5" s="0" t="s">
+      <c r="T5" s="7" t="s">
         <v>63</v>
       </c>
       <c r="U5" s="5"/>
-      <c r="V5" s="0" t="s">
+      <c r="V5" s="7" t="s">
         <v>64</v>
       </c>
       <c r="W5" s="5" t="s">
@@ -1845,7 +1839,7 @@
         <v>63</v>
       </c>
       <c r="U6" s="5"/>
-      <c r="V6" s="0" t="s">
+      <c r="V6" s="7" t="s">
         <v>64</v>
       </c>
       <c r="W6" s="5" t="s">
@@ -1899,7 +1893,7 @@
         <v>63</v>
       </c>
       <c r="U7" s="5"/>
-      <c r="V7" s="0" t="s">
+      <c r="V7" s="7" t="s">
         <v>64</v>
       </c>
       <c r="W7" s="5" t="s">
@@ -2078,13 +2072,13 @@
       <c r="A4" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>95</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>97</v>
       </c>
       <c r="K4" s="5" t="s">
@@ -2109,25 +2103,25 @@
   </sheetPr>
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="M14" activeCellId="0" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="19.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="9.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="19.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="28.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="18.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="10" width="136.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="19.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="9.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="19.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="28.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="18.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="7" width="136.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="11" width="208"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="10" width="14.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="10" width="11.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="10" width="15.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="10" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="7" width="14.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="7" width="11.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="7" width="15.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="7" width="12.15"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2167,7 +2161,7 @@
       <c r="L1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="10" t="s">
         <v>47</v>
       </c>
       <c r="N1" s="5" t="s">
@@ -2209,27 +2203,27 @@
       <c r="K4" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="7" t="s">
         <v>116</v>
       </c>
       <c r="N4" s="5" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="I5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="10" t="n">
+      <c r="I5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7" t="n">
         <v>0</v>
       </c>
       <c r="L5" s="12" t="s">
@@ -2243,13 +2237,13 @@
       <c r="A6" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="I6" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="10" t="n">
+      <c r="I6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7" t="n">
         <v>0</v>
       </c>
       <c r="L6" s="12" t="s">
@@ -2263,13 +2257,13 @@
       <c r="A7" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="I7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="10" t="n">
+      <c r="I7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7" t="n">
         <v>0</v>
       </c>
       <c r="L7" s="12" t="s">
@@ -2283,13 +2277,13 @@
       <c r="A8" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="I8" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="10" t="n">
+      <c r="I8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7" t="n">
         <v>0</v>
       </c>
       <c r="L8" s="12" t="s">
@@ -2303,13 +2297,13 @@
       <c r="A9" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="I9" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="10" t="n">
+      <c r="I9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7" t="n">
         <v>0</v>
       </c>
       <c r="L9" s="12" t="s">
@@ -2355,10 +2349,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="11.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="25.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="10" width="35.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="10" width="27.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="11.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="25.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="35.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="7" width="27.82"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2893,7 +2887,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>180</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -2905,55 +2899,55 @@
       <c r="F5" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K5" s="10" t="n">
+      <c r="K5" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="S5" s="10" t="n">
+      <c r="S5" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="W5" s="10" t="s">
+      <c r="W5" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="Y5" s="10" t="s">
+      <c r="Y5" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="AA5" s="10" t="n">
+      <c r="AA5" s="7" t="n">
         <v>2686</v>
       </c>
-      <c r="AB5" s="10" t="n">
+      <c r="AB5" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AC5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="10" t="n">
+      <c r="AC5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="AF5" s="10" t="n">
+      <c r="AF5" s="7" t="n">
         <v>4000</v>
       </c>
-      <c r="AG5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="10" t="s">
+      <c r="AG5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="AJ5" s="10" t="n">
+      <c r="AJ5" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AT5" s="10" t="s">
+      <c r="AT5" s="7" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2977,7 +2971,7 @@
   </sheetPr>
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
@@ -2985,10 +2979,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="29.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="10" width="20.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="10" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="10" width="24.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="29.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="7" width="20.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="7" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="7" width="24.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3064,9 +3058,9 @@
       <c r="X1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
@@ -3141,15 +3135,15 @@
       <c r="X2" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="17" t="s">
         <v>202</v>
       </c>
@@ -3159,32 +3153,30 @@
       <c r="G3" s="17" t="n">
         <v>100</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
       <c r="L3" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
       <c r="Q3" s="17" t="n">
         <v>0</v>
       </c>
       <c r="R3" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="18"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
